--- a/python/quiz/incorrect_questions.xlsx
+++ b/python/quiz/incorrect_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,31 +441,43 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Correct Answer</t>
+          <t>True/False</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egy folytonos idejű, lineáris, invariáns és kauzális rendszer aszimptotikusan stabil, ha a rendszermátrix valamennyi sajátértékének a valós része 1-nél kisebb.</t>
+          <t>A DI-FARE egyenlet megoldására dolgozták ki a Bass-Gura-módszert.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hamis</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A Kálmán-szűrőnek számos változata ismert az irodalomban.</t>
+          <t>Optimum helyén az első variáció pozitív.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Igaz</t>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Állapot-visszacsatolással a rendszer dinamikájára nincs hatásunk.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/python/quiz/incorrect_questions.xlsx
+++ b/python/quiz/incorrect_questions.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="True_False" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fill_in_the_blank" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Statements</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A DI-FARE egyenlet megoldására dolgozták ki a Bass-Gura-módszert.</t>
+          <t>A Kálmán-szűrő tervezésére az állapottér alapú szabályozótervezésből ismert Ackermann-formulát használjuk.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Optimum helyén az első variáció pozitív.</t>
+          <t>A rendszer szintézise során a rendszermodell paramétereit határozzuk meg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -469,15 +470,70 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Words</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A(z) ………………… minden körfrekvencián megadja a szinuszos kimenőjel és a szinuszos gerjesztő jel közötti kapcsolatot.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>átviteli karakterisztika</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A(z) ………….. n számú elsőrendű differenciálegyenletből áll.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>állapotváltozós leírás vagy állapotegyenlet</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Állapot-visszacsatolással a rendszer dinamikájára nincs hatásunk.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A rendszer ……………. során ismert a rendszer leírása és a rendszer kimenete s ezek birtokában határozzuk meg a rendszer bemenetét.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>szintézis</t>
         </is>
       </c>
     </row>
